--- a/excel/test_data.xlsx
+++ b/excel/test_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Isha Lakefront</t>
   </si>
@@ -27,6 +27,57 @@
   </si>
   <si>
     <t>Isha Code Field</t>
+  </si>
+  <si>
+    <t>Isha Aabhirupam</t>
+  </si>
+  <si>
+    <t>Isha Aarmabha</t>
+  </si>
+  <si>
+    <t>Isha Armonia</t>
+  </si>
+  <si>
+    <t>Isha Gayatri</t>
+  </si>
+  <si>
+    <t>Isha Swasthi</t>
+  </si>
+  <si>
+    <t>Isha Aara</t>
+  </si>
+  <si>
+    <t>Isha Poriyagham</t>
+  </si>
+  <si>
+    <t>Isha Maanickam</t>
+  </si>
+  <si>
+    <t>Isha Mia Villas</t>
+  </si>
+  <si>
+    <t>Isha Yara</t>
+  </si>
+  <si>
+    <t>Isha Signautre Villas</t>
+  </si>
+  <si>
+    <t>Isha Sahaana</t>
+  </si>
+  <si>
+    <t>Isha Pallavi</t>
+  </si>
+  <si>
+    <t>Isha Malhaar</t>
+  </si>
+  <si>
+    <t>Isha Gitikaa</t>
+  </si>
+  <si>
+    <t>Isha Shruthi</t>
+  </si>
+  <si>
+    <t>Isha Savani</t>
   </si>
 </sst>
 </file>
@@ -71,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,6 +153,91 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
